--- a/biology/Histoire de la zoologie et de la botanique/Pierre-Philippe_Niocel/Pierre-Philippe_Niocel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre-Philippe_Niocel/Pierre-Philippe_Niocel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Philippe Niocel est un instituteur et érudit périgourdin né en 1833 et décédé en 1909.
 Il écrit deux ouvrages de mathématiques destinés aux écoles rurales et classes d'adultes qui, publiés chez Larousse et Boyer, connaissent un grand succès en France à la fin du Second Empire.
@@ -513,7 +525,9 @@
           <t>Instituteur sous le Second Empire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Vieux-Mareuil (Dordogne) le 7 février 1833 dans une famille de marchands drapiers, Pierre-Philippe Niocel, fils de Jean Niocel et de Sicarie Ducher, s'oriente très jeune vers l'enseignement et devient instituteur à Piégut-Pluviers de 1859 à 1878 tout en assurant le secrétariat de la mairie, puis à Sourzac.
 En 1860, Pierre-Philippe épouse Radegonde-Anna Boulestin issue d'une vieille famille commerçante de Piégut. Ils auront trois filles : Hortense, Marie et Philippine qui deviennent toutes institutrices.
@@ -545,7 +559,9 @@
           <t>Auteur de deux ouvrages de mathématiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son goût pour la pédagogie et sa passion pour les mathématiques l'incitent à rédiger un ouvrage intitulé Le Calcul des écoles rurales et des classes d'adultes ou Problèmes sur l'agriculture, l'économie domestique, l'économie rurale, l'industrie...
 Ce livre dit de l'élève est édité par Larousse et Boyer en 1866.
@@ -582,7 +598,9 @@
           <t>De la botanique à la médecine par les plantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il consacre désormais ses loisirs à la rédaction d'un ouvrage qu'il intitule La Médecine par les plantes. Ce long travail, fruit d'années d'expériences personnelles, propose de traiter tous les maux avec les herbes que Pierre-Philippe Niocel rassemble et conserve dans un magnifique herbier riche de plus de mille planches. De sa fine écriture, il rédige également le Calendrier des plantes, longue liste des fleurs, herbes ou plantes qui chaque mois viennent couvrir bois, prairies ou jardins.
 Homme savant et éclairé, il s'entoure d'une riche bibliothèque, se laisse aller à la poésie et à la musique et se passionne pour l'astronomie en dessinant des cartes du ciel près d'Émile, le chat qu'il affectionne.
@@ -617,7 +635,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie
  Chevalier de l'ordre du Mérite agricole</t>
